--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4000,6 +4000,412 @@
       </c>
       <c r="BK17" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5231165</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45002.875</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['7', '61']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5231166</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['4', '36', '54']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['12', '61']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -723,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1158,7 +1161,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1349,7 +1352,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1439,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1540,7 +1543,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1731,7 +1734,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1922,7 +1925,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2304,7 +2307,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2495,7 +2498,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2686,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2877,7 +2880,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3259,7 +3262,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3641,7 +3644,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4214,7 +4217,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4405,7 +4408,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4787,7 +4790,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -4978,7 +4981,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5311,6 +5314,197 @@
       </c>
       <c r="BK24">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5231162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45005.875</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>2.38</v>
+      </c>
+      <c r="U25">
+        <v>2.1</v>
+      </c>
+      <c r="V25">
+        <v>5.5</v>
+      </c>
+      <c r="W25">
+        <v>1.44</v>
+      </c>
+      <c r="X25">
+        <v>2.63</v>
+      </c>
+      <c r="Y25">
+        <v>3.4</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>10</v>
+      </c>
+      <c r="AB25">
+        <v>1.06</v>
+      </c>
+      <c r="AC25">
+        <v>1.75</v>
+      </c>
+      <c r="AD25">
+        <v>3.35</v>
+      </c>
+      <c r="AE25">
+        <v>4.35</v>
+      </c>
+      <c r="AF25">
+        <v>1.05</v>
+      </c>
+      <c r="AG25">
+        <v>7.2</v>
+      </c>
+      <c r="AH25">
+        <v>1.39</v>
+      </c>
+      <c r="AI25">
+        <v>2.67</v>
+      </c>
+      <c r="AJ25">
+        <v>2.17</v>
+      </c>
+      <c r="AK25">
+        <v>1.62</v>
+      </c>
+      <c r="AL25">
+        <v>2.1</v>
+      </c>
+      <c r="AM25">
+        <v>1.67</v>
+      </c>
+      <c r="AN25">
+        <v>1.16</v>
+      </c>
+      <c r="AO25">
+        <v>1.29</v>
+      </c>
+      <c r="AP25">
+        <v>2.1</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0.5</v>
+      </c>
+      <c r="AU25">
+        <v>1.84</v>
+      </c>
+      <c r="AV25">
+        <v>0.97</v>
+      </c>
+      <c r="AW25">
+        <v>2.81</v>
+      </c>
+      <c r="AX25">
+        <v>1.38</v>
+      </c>
+      <c r="AY25">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ25">
+        <v>3.84</v>
+      </c>
+      <c r="BA25">
+        <v>1.32</v>
+      </c>
+      <c r="BB25">
+        <v>1.58</v>
+      </c>
+      <c r="BC25">
+        <v>2.02</v>
+      </c>
+      <c r="BD25">
+        <v>2.7</v>
+      </c>
+      <c r="BE25">
+        <v>3.8</v>
+      </c>
+      <c r="BF25">
+        <v>10</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>2</v>
+      </c>
+      <c r="BI25">
+        <v>2</v>
+      </c>
+      <c r="BJ25">
+        <v>12</v>
+      </c>
+      <c r="BK25">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -5623,6 +5623,1630 @@
         <v>12</v>
       </c>
       <c r="BK25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5231170</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45016.8125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['13', '32']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['23', '25', '55']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5231174</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45016.91666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['8', '23', '31', '40', '61', '72']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>11</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5231169</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['45+8', '67']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['37', '86']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5231172</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45017.77083333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5231167</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45017.875</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['11', '67', '90']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['14', '74']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5231173</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['9', '31', '68']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5231171</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45018.77083333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['31', '38']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5231168</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45018.875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['18', '19', '90+4']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['11', '33']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK33" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7250,6 +7250,209 @@
         <v>7</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5231181</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45023.875</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['1', '18']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>1.24</v>
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -7451,6 +7451,1224 @@
       </c>
       <c r="BK34" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5231179</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5231177</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45024.72916666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['37', '49']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5231180</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45024.83333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['10', '27', '67']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5231182</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45025.625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['29', '90+5']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>13</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5231176</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45025.72916666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['90+9', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5231175</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45025.83333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['16', '77']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>8</v>
+      </c>
+      <c r="R40" t="n">
+        <v>11</v>
+      </c>
+      <c r="S40" t="n">
+        <v>19</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -8669,6 +8669,209 @@
       </c>
       <c r="BK40" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5231178</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45026.875</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['16', '48', '79', '82']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
